--- a/results/region_genre_03_pal_genre.xlsx
+++ b/results/region_genre_03_pal_genre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,25 +476,25 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>163702.0438</v>
+        <v>-36099.2073</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>151366.291</v>
+        <v>-66181.7561</v>
       </c>
       <c r="G2" t="n">
-        <v>176037.7967</v>
+        <v>-6016.6586</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -506,25 +506,25 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-25564.6393</v>
+        <v>-68113.3385</v>
       </c>
       <c r="E3" t="n">
         <v>0.001</v>
       </c>
       <c r="F3" t="n">
-        <v>-37900.3921</v>
+        <v>-99890.77499999999</v>
       </c>
       <c r="G3" t="n">
-        <v>-13228.8864</v>
+        <v>-36335.9019</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -536,28 +536,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>rpg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64421.571</v>
+        <v>-34377.9187</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001</v>
+        <v>0.0944</v>
       </c>
       <c r="F4" t="n">
-        <v>52085.8182</v>
+        <v>-71901.7865</v>
       </c>
       <c r="G4" t="n">
-        <v>76757.3239</v>
+        <v>3145.9491</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -566,25 +566,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>simul</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-189266.6831</v>
+        <v>-78578.7809</v>
       </c>
       <c r="E5" t="n">
         <v>0.001</v>
       </c>
       <c r="F5" t="n">
-        <v>-201602.4359</v>
+        <v>-114550.9115</v>
       </c>
       <c r="G5" t="n">
-        <v>-176930.9302</v>
+        <v>-42606.6503</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -596,28 +596,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>action</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>sports</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-99280.4728</v>
+        <v>6777.5231</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001</v>
+        <v>0.9</v>
       </c>
       <c r="F6" t="n">
-        <v>-111616.2256</v>
+        <v>-22033.9792</v>
       </c>
       <c r="G6" t="n">
-        <v>-86944.7199</v>
+        <v>35589.0253</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,27 +626,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PAL</t>
+          <t>misc</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>89986.21030000001</v>
+        <v>-32014.1311</v>
       </c>
       <c r="E7" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-66706.2291</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2677.9668</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>rpg</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1721.2886</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-38300.9157</v>
+      </c>
+      <c r="G8" t="n">
+        <v>41743.493</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>-42479.5736</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0211</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-81050.68150000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-3908.4657</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>42876.7304</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0019</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10879.2485</v>
+      </c>
+      <c r="G10" t="n">
+        <v>74874.2123</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>misc</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>rpg</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>33735.4197</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1829</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-7575.869</v>
+      </c>
+      <c r="G11" t="n">
+        <v>75046.70849999999</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>misc</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>-10465.4425</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-50372.5358</v>
+      </c>
+      <c r="G12" t="n">
+        <v>29441.6509</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>misc</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>74890.8615</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.001</v>
       </c>
-      <c r="F7" t="n">
-        <v>77650.4574</v>
-      </c>
-      <c r="G7" t="n">
-        <v>102321.9632</v>
-      </c>
-      <c r="H7" t="b">
+      <c r="F13" t="n">
+        <v>41294.9602</v>
+      </c>
+      <c r="G13" t="n">
+        <v>108486.7628</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>rpg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-44200.8622</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0539</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-88819.3705</v>
+      </c>
+      <c r="G14" t="n">
+        <v>417.6461</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>rpg</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>41155.4418</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0322</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2079.621</v>
+      </c>
+      <c r="G15" t="n">
+        <v>80231.2625</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>simul</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>sports</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>85356.304</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>47768.0972</v>
+      </c>
+      <c r="G16" t="n">
+        <v>122944.5108</v>
+      </c>
+      <c r="H16" t="b">
         <v>1</v>
       </c>
     </row>

--- a/results/region_genre_03_pal_genre.xlsx
+++ b/results/region_genre_03_pal_genre.xlsx
@@ -485,19 +485,19 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-36099.2073</v>
+        <v>4269.5452</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008200000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="F2" t="n">
-        <v>-66181.7561</v>
+        <v>-46984.151</v>
       </c>
       <c r="G2" t="n">
-        <v>-6016.6586</v>
+        <v>55523.2415</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -515,19 +515,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-68113.3385</v>
+        <v>-39249.9023</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001</v>
+        <v>0.3529</v>
       </c>
       <c r="F3" t="n">
-        <v>-99890.77499999999</v>
+        <v>-95678.0224</v>
       </c>
       <c r="G3" t="n">
-        <v>-36335.9019</v>
+        <v>17178.2179</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-34377.9187</v>
+        <v>22387.6061</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0944</v>
+        <v>0.9</v>
       </c>
       <c r="F4" t="n">
-        <v>-71901.7865</v>
+        <v>-44274.1297</v>
       </c>
       <c r="G4" t="n">
-        <v>3145.9491</v>
+        <v>89049.3419</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-78578.7809</v>
+        <v>-68756.3993</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001</v>
+        <v>0.0256</v>
       </c>
       <c r="F5" t="n">
-        <v>-114550.9115</v>
+        <v>-132455.6725</v>
       </c>
       <c r="G5" t="n">
-        <v>-42606.6503</v>
+        <v>-5057.1261</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -605,16 +605,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6777.5231</v>
+        <v>13975.3766</v>
       </c>
       <c r="E6" t="n">
         <v>0.9</v>
       </c>
       <c r="F6" t="n">
-        <v>-22033.9792</v>
+        <v>-31198.573</v>
       </c>
       <c r="G6" t="n">
-        <v>35589.0253</v>
+        <v>59149.3263</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -635,16 +635,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-32014.1311</v>
+        <v>-43519.4475</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09</v>
+        <v>0.3775</v>
       </c>
       <c r="F7" t="n">
-        <v>-66706.2291</v>
+        <v>-107382.8986</v>
       </c>
       <c r="G7" t="n">
-        <v>2677.9668</v>
+        <v>20344.0036</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1721.2886</v>
+        <v>18118.0608</v>
       </c>
       <c r="E8" t="n">
         <v>0.9</v>
       </c>
       <c r="F8" t="n">
-        <v>-38300.9157</v>
+        <v>-54944.8892</v>
       </c>
       <c r="G8" t="n">
-        <v>41743.493</v>
+        <v>91181.01089999999</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -695,16 +695,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-42479.5736</v>
+        <v>-73025.9445</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0211</v>
+        <v>0.0367</v>
       </c>
       <c r="F9" t="n">
-        <v>-81050.68150000001</v>
+        <v>-143396.4287</v>
       </c>
       <c r="G9" t="n">
-        <v>-3908.4657</v>
+        <v>-2655.4603</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -725,19 +725,19 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>42876.7304</v>
+        <v>9705.831399999999</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0019</v>
+        <v>0.9</v>
       </c>
       <c r="F10" t="n">
-        <v>10879.2485</v>
+        <v>-44470.6706</v>
       </c>
       <c r="G10" t="n">
-        <v>74874.2123</v>
+        <v>63882.3334</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -755,16 +755,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33735.4197</v>
+        <v>61637.5083</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1829</v>
+        <v>0.1988</v>
       </c>
       <c r="F11" t="n">
-        <v>-7575.869</v>
+        <v>-15143.9089</v>
       </c>
       <c r="G11" t="n">
-        <v>75046.70849999999</v>
+        <v>138418.9255</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-10465.4425</v>
+        <v>-29506.497</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9</v>
+        <v>0.8546</v>
       </c>
       <c r="F12" t="n">
-        <v>-50372.5358</v>
+        <v>-103730.4582</v>
       </c>
       <c r="G12" t="n">
-        <v>29441.6509</v>
+        <v>44717.4642</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -815,19 +815,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>74890.8615</v>
+        <v>53225.2789</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001</v>
+        <v>0.1056</v>
       </c>
       <c r="F13" t="n">
-        <v>41294.9602</v>
+        <v>-5870.277</v>
       </c>
       <c r="G13" t="n">
-        <v>108486.7628</v>
+        <v>112320.8348</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -845,19 +845,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>-44200.8622</v>
+        <v>-91144.00539999999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0539</v>
+        <v>0.0199</v>
       </c>
       <c r="F14" t="n">
-        <v>-88819.3705</v>
+        <v>-173417.0307</v>
       </c>
       <c r="G14" t="n">
-        <v>417.6461</v>
+        <v>-8870.98</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -875,19 +875,19 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>41155.4418</v>
+        <v>-8412.2294</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0322</v>
+        <v>0.9</v>
       </c>
       <c r="F15" t="n">
-        <v>2079.621</v>
+        <v>-77346.53879999999</v>
       </c>
       <c r="G15" t="n">
-        <v>80231.2625</v>
+        <v>60522.08</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -905,16 +905,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>85356.304</v>
+        <v>82731.77589999999</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001</v>
+        <v>0.0048</v>
       </c>
       <c r="F16" t="n">
-        <v>47768.0972</v>
+        <v>16657.9581</v>
       </c>
       <c r="G16" t="n">
-        <v>122944.5108</v>
+        <v>148805.5937</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
